--- a/Hospital_Management_System.xlsx
+++ b/Hospital_Management_System.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rithikka\Desktop\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45B510CD-5052-4EEE-A697-D2A49067CEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B712837-9D23-42E7-B3B8-972D890519B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC8BEAEC-B706-4CE5-AF90-010F9FF6672F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{EC8BEAEC-B706-4CE5-AF90-010F9FF6672F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="105">
   <si>
     <t>Project Name     :</t>
   </si>
@@ -96,9 +100,6 @@
     <t>As Expected</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>3.Click on the Admin Login option</t>
   </si>
   <si>
@@ -187,13 +188,178 @@
   </si>
   <si>
     <t>"Enter a valid Password"</t>
+  </si>
+  <si>
+    <t>Verify if admin is able to click the doctor button</t>
+  </si>
+  <si>
+    <t>6.Click on dashboard</t>
+  </si>
+  <si>
+    <t>7.Click on the "Doctors" option</t>
+  </si>
+  <si>
+    <t>It should navigate to "Doctors" page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that "Doctor info added successfully" pop up displays when admin </t>
+  </si>
+  <si>
+    <t>fills the form completely with the criteria given</t>
+  </si>
+  <si>
+    <t>8.Fill the details in the form according to the criteria</t>
+  </si>
+  <si>
+    <t>It should display the "Doctor info added successfully"</t>
+  </si>
+  <si>
+    <t>4.Enter the valid username and password</t>
+  </si>
+  <si>
+    <t>6.Click on the dashboard.</t>
+  </si>
+  <si>
+    <t>9.Go to "Doctor Specialization" option</t>
+  </si>
+  <si>
+    <t>The given details should be added to this tab</t>
+  </si>
+  <si>
+    <t>Project Name:</t>
+  </si>
+  <si>
+    <t>Module Name:</t>
+  </si>
+  <si>
+    <t>Release version:</t>
+  </si>
+  <si>
+    <t>TestCase_Id</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>Username:admin</t>
+  </si>
+  <si>
+    <t>It should navigate to the dashboard page</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Password:Test@12345</t>
+  </si>
+  <si>
+    <t>Verify if admin is able to click Manage users menu</t>
+  </si>
+  <si>
+    <t>It should navigate to Manage users page</t>
+  </si>
+  <si>
+    <t>7.Click on the manage users option</t>
+  </si>
+  <si>
+    <t>Verify if "Are you sure you want to delete it"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">displayes when admin tries to delete it and then </t>
+  </si>
+  <si>
+    <t>It should display "Are you sure you want to delete</t>
+  </si>
+  <si>
+    <t>gets deleted</t>
+  </si>
+  <si>
+    <t>it" and deletes it.</t>
+  </si>
+  <si>
+    <t>8.Delete an entity in actions tab</t>
+  </si>
+  <si>
+    <t>Test Designed By                            :</t>
+  </si>
+  <si>
+    <t>Test Designed Date                        :</t>
+  </si>
+  <si>
+    <t>Test Executed By                            :</t>
+  </si>
+  <si>
+    <t>Test Execution Date                      :</t>
+  </si>
+  <si>
+    <t>Release version :</t>
+  </si>
+  <si>
+    <t>It should navigate to manage patient's page</t>
+  </si>
+  <si>
+    <t>7.Click on the manage patient's name.</t>
+  </si>
+  <si>
+    <t>It should display patient's details when</t>
+  </si>
+  <si>
+    <t>view icon is clicked.</t>
+  </si>
+  <si>
+    <t>8.Click view icon.</t>
+  </si>
+  <si>
+    <t>Test Designed By          :    Rithikka L K</t>
+  </si>
+  <si>
+    <t>Test Executed By          :   Rithikka L K</t>
+  </si>
+  <si>
+    <t>Test Execution Date     :   27.05.2023</t>
+  </si>
+  <si>
+    <t>Test Designed Date      :    27.05.2023</t>
+  </si>
+  <si>
+    <t>Release version  :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that admin should be able to click on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should navigate to appointment history </t>
+  </si>
+  <si>
+    <t xml:space="preserve">appointment history menu and the appointment details </t>
+  </si>
+  <si>
+    <t>page and details should be displayed.</t>
+  </si>
+  <si>
+    <t>are displayed</t>
+  </si>
+  <si>
+    <t>7.Click on the appointment history</t>
+  </si>
+  <si>
+    <t>Test Designed By          :  Rithikka L K</t>
+  </si>
+  <si>
+    <t>Test Designed Date      :  27.05.2023</t>
+  </si>
+  <si>
+    <t>Test Executed By          :  Rithikka L K</t>
+  </si>
+  <si>
+    <t>Test Execution Date     :  27.05.2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +371,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -230,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -248,7 +429,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D934E0AB-F32E-4370-B37B-203288353D2B}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -598,13 +783,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -626,7 +811,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -663,7 +848,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -672,253 +857,2003 @@
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
         <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
         <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>27</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
         <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C18" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C20" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
         <v>39</v>
       </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>20</v>
+      <c r="G28" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62184C1A-E404-4D17-9ABC-1FF18DC4C538}">
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="61.44140625" customWidth="1"/>
+    <col min="3" max="3" width="45.77734375" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" customWidth="1"/>
+    <col min="5" max="5" width="47.21875" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="C12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="C14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
         <v>50</v>
       </c>
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C22" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC10AEAC-C1E4-4787-B8D9-479F27243559}">
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="38.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="41.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="C29" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="C30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="C31" s="7" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="7" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" t="s">
-        <v>46</v>
-      </c>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>48</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C37" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C38" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98987AB1-D0DF-43AD-AC80-28B9BBD87265}">
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="39.77734375" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="37.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F131A6-8F0A-4ECA-9605-7711CD93A300}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="47.77734375" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hospital_Management_System.xlsx
+++ b/Hospital_Management_System.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rithikka\Desktop\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B712837-9D23-42E7-B3B8-972D890519B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60AC6DF-CC3E-491B-89B6-B3BD1D25995A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{EC8BEAEC-B706-4CE5-AF90-010F9FF6672F}"/>
   </bookViews>
@@ -1088,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62184C1A-E404-4D17-9ABC-1FF18DC4C538}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B50" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2490,7 +2490,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
